--- a/output/below_50/tRNA-Leu-AAG-4-1.xlsx
+++ b/output/below_50/tRNA-Leu-AAG-4-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>chr6</t>
   </si>
@@ -288,135 +288,6 @@
   </si>
   <si>
     <t>2.30213E+11</t>
-  </si>
-  <si>
-    <t>28446631</t>
-  </si>
-  <si>
-    <t>28446654</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>28446634</t>
-  </si>
-  <si>
-    <t>TCAGCTGCAGGACAAAGGAC</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>13% (25)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 32, Doench 2016: 56%, Moreno-Mateos: 13%</t>
-  </si>
-  <si>
-    <t>1.45194E+11</t>
-  </si>
-  <si>
-    <t>28446687</t>
-  </si>
-  <si>
-    <t>28446710</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>28446690</t>
-  </si>
-  <si>
-    <t>CTTCCTGTCCCTTTACTCTC</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>9% (21)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 25, Doench 2016: 30%, Moreno-Mateos: 9%</t>
-  </si>
-  <si>
-    <t>63527924540</t>
-  </si>
-  <si>
-    <t>28446873</t>
-  </si>
-  <si>
-    <t>28446896</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>28446893</t>
-  </si>
-  <si>
-    <t>TGTTTGCAACCAGAAAACAG</t>
-  </si>
-  <si>
-    <t>100% (78)</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 48, Doench 2016: 100%, Moreno-Mateos: 41%</t>
-  </si>
-  <si>
-    <t>11474360799</t>
-  </si>
-  <si>
-    <t>28446905</t>
-  </si>
-  <si>
-    <t>28446928</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>28446908</t>
-  </si>
-  <si>
-    <t>ACGCGAGTTCCGGGTGGATG</t>
-  </si>
-  <si>
-    <t>40% (47)</t>
-  </si>
-  <si>
-    <t>95% (76)</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 16, Doench 2016: 40%, Moreno-Mateos: 95%</t>
-  </si>
-  <si>
-    <t>1.96881E+11</t>
   </si>
 </sst>
 </file>
@@ -461,7 +332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1057,242 +928,6 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" t="s">
-        <v>101</v>
-      </c>
-      <c r="S11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" t="s">
-        <v>109</v>
-      </c>
-      <c r="P12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>111</v>
-      </c>
-      <c r="R12" t="s">
-        <v>112</v>
-      </c>
-      <c r="S12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" t="s">
-        <v>119</v>
-      </c>
-      <c r="O13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>122</v>
-      </c>
-      <c r="R13" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>132</v>
-      </c>
-      <c r="R14" t="s">
-        <v>133</v>
-      </c>
-      <c r="S14" t="s">
-        <v>134</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
